--- a/Statistics/Libro1.xlsx
+++ b/Statistics/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Stuff\Maths\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E01320AE-D681-4FC5-942C-94C3E8846424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6501DDC-0DCD-4088-8C9F-444EA0957236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{EC428E80-0312-4BBD-BAB3-FF2004C9CDDC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Efectividad antes del C19</t>
   </si>
@@ -52,6 +52,63 @@
   </si>
   <si>
     <t>El trabajo remoto ha hecho mi organización más eficiente</t>
+  </si>
+  <si>
+    <t>Registro de clientes</t>
+  </si>
+  <si>
+    <t>Información financiera</t>
+  </si>
+  <si>
+    <t>Tarjetas de crédito/débito de clientes</t>
+  </si>
+  <si>
+    <t>Propiedad intelectual</t>
+  </si>
+  <si>
+    <t>Registro de empleados</t>
+  </si>
+  <si>
+    <t>Correspondencia de negocios</t>
+  </si>
+  <si>
+    <t>No entender cómo proteger un ciberataque</t>
+  </si>
+  <si>
+    <t>insuficientes tecnologías de seguridad habilitantes</t>
+  </si>
+  <si>
+    <t>Falta de liderazgo claro</t>
+  </si>
+  <si>
+    <t>Falta de experiencia interna</t>
+  </si>
+  <si>
+    <t>Personal insuficiente</t>
+  </si>
+  <si>
+    <t>No se considera el trabajo remoto como riesgo de seguridad</t>
+  </si>
+  <si>
+    <t>Otro</t>
+  </si>
+  <si>
+    <t>Presupuesto insuficiente (capital)</t>
+  </si>
+  <si>
+    <t>Incremento significante</t>
+  </si>
+  <si>
+    <t>Igual</t>
+  </si>
+  <si>
+    <t>Decremento</t>
+  </si>
+  <si>
+    <t>Decremento significante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incremento </t>
   </si>
 </sst>
 </file>
@@ -87,9 +144,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,6 +783,925 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$M$3:$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Registro de clientes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Información financiera</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tarjetas de crédito/débito de clientes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Propiedad intelectual</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Registro de empleados</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Correspondencia de negocios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$N$3:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B7AF-4596-AAD9-37230AB72896}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="472675695"/>
+        <c:axId val="472676111"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="472675695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472676111"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="472676111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472675695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$37:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Otro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>No se considera el trabajo remoto como riesgo de seguridad</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Personal insuficiente</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Falta de experiencia interna</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Falta de liderazgo claro</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>insuficientes tecnologías de seguridad habilitantes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>No entender cómo proteger un ciberataque</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Presupuesto insuficiente (capital)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$37:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8937-471D-B5F2-36BAB84C58F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="589897871"/>
+        <c:axId val="589898287"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="589897871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="589898287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="589898287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="589897871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$62:$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Incremento significante</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Igual</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Decremento</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Decremento significante</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$62:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4FC3-4A72-9EC9-7D81BAFD51BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="402467535"/>
+        <c:axId val="402466703"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="402467535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402466703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="402466703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402467535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -799,6 +1782,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1775,6 +2878,1519 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1876,6 +4492,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F8130FB-57B4-47E2-9F8D-A47063166AE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>453984</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>88075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47996</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{267DD5A5-51FF-4459-8C01-1AA7C4A14BAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A65EE64-8E9C-4434-9632-585DAE00D7A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2181,19 +4905,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82C9337-FB9A-45E4-8924-707BC53CCCC6}">
-  <dimension ref="A2:B22"/>
+  <dimension ref="A2:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2201,12 +4926,58 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.44</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2241,7 +5012,165 @@
         <v>0.35</v>
       </c>
     </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2215</v>
+      </c>
+      <c r="B49" s="2">
+        <f>($A$49*B37)</f>
+        <v>44.300000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <f t="shared" ref="B50:B57" si="0">($A$49*B38)</f>
+        <v>398.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <f t="shared" si="0"/>
+        <v>420.85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <f t="shared" si="0"/>
+        <v>531.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <f t="shared" si="0"/>
+        <v>553.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <f t="shared" si="0"/>
+        <v>598.05000000000007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <f t="shared" si="0"/>
+        <v>930.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
+        <f t="shared" si="0"/>
+        <v>974.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="4">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:B44">
+    <sortCondition ref="B44"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Statistics/Libro1.xlsx
+++ b/Statistics/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Stuff\Maths\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6501DDC-0DCD-4088-8C9F-444EA0957236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5430ED5C-F1F0-4D27-9CCA-2DE6DA3F125B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{EC428E80-0312-4BBD-BAB3-FF2004C9CDDC}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Efectividad antes del C19</t>
   </si>
@@ -110,15 +111,87 @@
   <si>
     <t xml:space="preserve">Incremento </t>
   </si>
+  <si>
+    <t>FIDO2</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Auntenticación múltiples factores</t>
+  </si>
+  <si>
+    <t>Auntenticación de dos factores</t>
+  </si>
+  <si>
+    <t>Robo de credenciales</t>
+  </si>
+  <si>
+    <t>Phishing/ingeniería social</t>
+  </si>
+  <si>
+    <t>Toma de cuenta</t>
+  </si>
+  <si>
+    <t>Malware general</t>
+  </si>
+  <si>
+    <t>Denegación de servicios</t>
+  </si>
+  <si>
+    <t>Ataques basados en web</t>
+  </si>
+  <si>
+    <t>Malicious Insider</t>
+  </si>
+  <si>
+    <t>Dispositivos robados/comprometidos</t>
+  </si>
+  <si>
+    <t>Malware avanzado/zero day attacks</t>
+  </si>
+  <si>
+    <t>SQL injection</t>
+  </si>
+  <si>
+    <t>Cross-site scripting</t>
+  </si>
+  <si>
+    <t>Ransomware</t>
+  </si>
+  <si>
+    <t>Incrimento Significante</t>
+  </si>
+  <si>
+    <t>Incremento</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moda </t>
+  </si>
+  <si>
+    <t>Mediana</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -144,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -154,6 +227,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1702,6 +1776,617 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$81:$A$84</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Auntenticación de dos factores</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Auntenticación múltiples factores</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Otros</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FIDO2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$81:$B$84</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8190-429C-8134-EC7CA3CB6BDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1663600895"/>
+        <c:axId val="1663604223"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1663600895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1663604223"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1663604223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1663600895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$99:$A$111</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Otros</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ransomware</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cross-site scripting</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SQL injection</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Malware avanzado/zero day attacks</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dispositivos robados/comprometidos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Malicious Insider</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ataques basados en web</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Malware general</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Denegación de servicios</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Toma de cuenta</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Phishing/ingeniería social</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Robo de credenciales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$99:$B$111</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-66B3-43A6-970A-75F045E081E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1669891039"/>
+        <c:axId val="1669894367"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1669891039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1669894367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1669894367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1669891039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1902,6 +2587,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4391,6 +5156,1014 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4605,6 +6378,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>610720</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>90767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>599514</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>166967</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF230089-836B-440E-BC0D-8329F43A5684}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>510266</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>496659</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D1898B-F4B6-4962-9C67-E65C5FB01A96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4905,10 +6750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82C9337-FB9A-45E4-8924-707BC53CCCC6}">
-  <dimension ref="A2:N66"/>
+  <dimension ref="A2:N142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H135" sqref="H135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5086,12 +6931,18 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1528</v>
+      </c>
       <c r="B50" s="2">
-        <f t="shared" ref="B50:B57" si="0">($A$49*B38)</f>
+        <f t="shared" ref="B50:B56" si="0">($A$49*B38)</f>
         <v>398.7</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1329</v>
+      </c>
       <c r="B51" s="2">
         <f t="shared" si="0"/>
         <v>420.85</v>
@@ -5167,11 +7018,373 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <f>SUM(B62:B66)</f>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="2">
+        <f>B62*$A$49</f>
+        <v>465.15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="2">
+        <f t="shared" ref="B72:B75" si="1">B63*$A$49</f>
+        <v>775.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="2">
+        <f t="shared" si="1"/>
+        <v>598.05000000000007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="2">
+        <f t="shared" si="1"/>
+        <v>199.35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="2">
+        <f t="shared" si="1"/>
+        <v>155.05000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="2">
+        <f>B81*$A$50</f>
+        <v>611.20000000000005</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="2">
+        <f t="shared" ref="B88:B90" si="2">B82*$A$50</f>
+        <v>534.79999999999995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="2">
+        <f t="shared" si="2"/>
+        <v>198.64000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="2">
+        <f t="shared" si="2"/>
+        <v>183.35999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>40</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>38</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>37</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>36</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>35</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>34</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>32</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>31</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>29</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="2">
+        <f>B99*$A$51</f>
+        <v>66.45</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="2">
+        <f t="shared" ref="B115:B126" si="3">B100*$A$51</f>
+        <v>199.35</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="2">
+        <f t="shared" si="3"/>
+        <v>212.64000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="2">
+        <f t="shared" si="3"/>
+        <v>252.51</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="2">
+        <f t="shared" si="3"/>
+        <v>318.95999999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="2">
+        <f t="shared" si="3"/>
+        <v>372.12000000000006</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="2">
+        <f t="shared" si="3"/>
+        <v>451.86</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="2">
+        <f t="shared" si="3"/>
+        <v>478.44</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="2">
+        <f t="shared" si="3"/>
+        <v>558.17999999999995</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="2">
+        <f t="shared" si="3"/>
+        <v>558.17999999999995</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="2">
+        <f t="shared" si="3"/>
+        <v>571.47</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="2">
+        <f t="shared" si="3"/>
+        <v>637.91999999999996</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="2">
+        <f t="shared" si="3"/>
+        <v>744.24000000000012</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>46</v>
+      </c>
+      <c r="E136" t="s">
+        <v>44</v>
+      </c>
+      <c r="F136">
+        <f>B138</f>
+        <v>775</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>41</v>
+      </c>
+      <c r="B137">
+        <v>465</v>
+      </c>
+      <c r="C137">
+        <f>B137</f>
+        <v>465</v>
+      </c>
+      <c r="E137" t="s">
+        <v>45</v>
+      </c>
+      <c r="F137">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>42</v>
+      </c>
+      <c r="B138">
+        <v>775</v>
+      </c>
+      <c r="C138">
+        <f>C137+B138</f>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139">
+        <v>598</v>
+      </c>
+      <c r="C139">
+        <f t="shared" ref="C139:C142" si="4">C138+B139</f>
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>22</v>
+      </c>
+      <c r="B140">
+        <v>199</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="4"/>
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>23</v>
+      </c>
+      <c r="B141">
+        <v>155</v>
+      </c>
+      <c r="C141">
+        <f>C140+B141</f>
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>43</v>
+      </c>
+      <c r="B142">
+        <f>SUM(B137:B141)</f>
+        <v>2192</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:B44">
-    <sortCondition ref="B44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A99:B110">
+    <sortCondition ref="B110"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Statistics/Libro1.xlsx
+++ b/Statistics/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Stuff\Maths\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5430ED5C-F1F0-4D27-9CCA-2DE6DA3F125B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0F7440-ED3F-4857-AAFF-6BD0694D49B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{EC428E80-0312-4BBD-BAB3-FF2004C9CDDC}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Efectividad antes del C19</t>
   </si>
@@ -176,6 +175,12 @@
   </si>
   <si>
     <t>FA</t>
+  </si>
+  <si>
+    <t>Ataques/Semana</t>
+  </si>
+  <si>
+    <t>Encuestados</t>
   </si>
 </sst>
 </file>
@@ -2339,6 +2344,380 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1669891039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$148</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Encuestados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$149:$A$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$149:$B$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-61AC-4E47-A8A9-7795FA5D488C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="527765104"/>
+        <c:axId val="527760112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="527765104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Ataques/semana</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="527760112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="527760112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Encuestados</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="527765104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2667,6 +3046,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6164,6 +6583,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6450,6 +7372,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>151279</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>34738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>151279</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>110938</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{298D7DB0-48B4-49D6-B5B2-043E754180D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6750,15 +7708,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82C9337-FB9A-45E4-8924-707BC53CCCC6}">
-  <dimension ref="A2:N142"/>
+  <dimension ref="A2:N153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H135" sqref="H135"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="13" max="13" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -7342,7 +8301,7 @@
         <v>598</v>
       </c>
       <c r="C139">
-        <f t="shared" ref="C139:C142" si="4">C138+B139</f>
+        <f t="shared" ref="C139:C140" si="4">C138+B139</f>
         <v>1838</v>
       </c>
     </row>
@@ -7377,6 +8336,54 @@
       <c r="B142">
         <f>SUM(B137:B141)</f>
         <v>2192</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>47</v>
+      </c>
+      <c r="B148" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="B149">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2</v>
+      </c>
+      <c r="B150">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>3</v>
+      </c>
+      <c r="B151">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>4</v>
+      </c>
+      <c r="B152">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>5</v>
+      </c>
+      <c r="B153">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Statistics/Libro1.xlsx
+++ b/Statistics/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Stuff\Maths\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0F7440-ED3F-4857-AAFF-6BD0694D49B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E26E140-C09A-46A8-9312-6855E31E7E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{EC428E80-0312-4BBD-BAB3-FF2004C9CDDC}"/>
   </bookViews>
@@ -2766,6 +2766,304 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$148</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Encuestados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$149:$A$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$149:$B$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A061-47AA-8931-A9EDDBEDD8CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1225961136"/>
+        <c:axId val="1225960720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1225961136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1225960720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1225960720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1225961136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3086,6 +3384,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7099,6 +7437,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7408,6 +8262,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2811555</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>188818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>525555</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>74518</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38CEC366-3C55-4B5D-B5DE-DB0BBC472E27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7710,8 +8600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82C9337-FB9A-45E4-8924-707BC53CCCC6}">
   <dimension ref="A2:N153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
